--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.180457666666666</v>
+        <v>4.031026</v>
       </c>
       <c r="H2">
-        <v>12.541373</v>
+        <v>12.093078</v>
       </c>
       <c r="I2">
-        <v>0.8563488069000774</v>
+        <v>0.8076489532688633</v>
       </c>
       <c r="J2">
-        <v>0.8563488069000773</v>
+        <v>0.8076489532688634</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N2">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O2">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P2">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q2">
-        <v>2.828830700394111</v>
+        <v>10.78232943071</v>
       </c>
       <c r="R2">
-        <v>25.459476303547</v>
+        <v>97.04096487638999</v>
       </c>
       <c r="S2">
-        <v>0.00791860872934304</v>
+        <v>0.03609482362592748</v>
       </c>
       <c r="T2">
-        <v>0.00791860872934304</v>
+        <v>0.03609482362592748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.180457666666666</v>
+        <v>4.031026</v>
       </c>
       <c r="H3">
-        <v>12.541373</v>
+        <v>12.093078</v>
       </c>
       <c r="I3">
-        <v>0.8563488069000774</v>
+        <v>0.8076489532688633</v>
       </c>
       <c r="J3">
-        <v>0.8563488069000773</v>
+        <v>0.8076489532688634</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>137.100929</v>
       </c>
       <c r="O3">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P3">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q3">
-        <v>191.0482099150574</v>
+        <v>184.2191364743847</v>
       </c>
       <c r="R3">
-        <v>1719.433889235517</v>
+        <v>1657.972228269462</v>
       </c>
       <c r="S3">
-        <v>0.534791998173651</v>
+        <v>0.6166902321334221</v>
       </c>
       <c r="T3">
-        <v>0.534791998173651</v>
+        <v>0.6166902321334222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.180457666666666</v>
+        <v>4.031026</v>
       </c>
       <c r="H4">
-        <v>12.541373</v>
+        <v>12.093078</v>
       </c>
       <c r="I4">
-        <v>0.8563488069000774</v>
+        <v>0.8076489532688633</v>
       </c>
       <c r="J4">
-        <v>0.8563488069000773</v>
+        <v>0.8076489532688634</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N4">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P4">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q4">
-        <v>111.4313950468766</v>
+        <v>46.19958764232466</v>
       </c>
       <c r="R4">
-        <v>1002.88255542189</v>
+        <v>415.796288780922</v>
       </c>
       <c r="S4">
-        <v>0.3119245055627179</v>
+        <v>0.1546573009345051</v>
       </c>
       <c r="T4">
-        <v>0.3119245055627179</v>
+        <v>0.1546573009345051</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.180457666666666</v>
+        <v>4.031026</v>
       </c>
       <c r="H5">
-        <v>12.541373</v>
+        <v>12.093078</v>
       </c>
       <c r="I5">
-        <v>0.8563488069000774</v>
+        <v>0.8076489532688633</v>
       </c>
       <c r="J5">
-        <v>0.8563488069000773</v>
+        <v>0.8076489532688634</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N5">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O5">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P5">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q5">
-        <v>0.6121973685937777</v>
+        <v>0.022710800484</v>
       </c>
       <c r="R5">
-        <v>5.509776317344</v>
+        <v>0.204397204356</v>
       </c>
       <c r="S5">
-        <v>0.001713694434365457</v>
+        <v>7.602646006519111E-05</v>
       </c>
       <c r="T5">
-        <v>0.001713694434365457</v>
+        <v>7.602646006519111E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.150679</v>
+        <v>4.031026</v>
       </c>
       <c r="H6">
-        <v>0.452037</v>
+        <v>12.093078</v>
       </c>
       <c r="I6">
-        <v>0.03086594630625293</v>
+        <v>0.8076489532688633</v>
       </c>
       <c r="J6">
-        <v>0.03086594630625293</v>
+        <v>0.8076489532688634</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6766796666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N6">
-        <v>2.030039</v>
+        <v>0.029028</v>
       </c>
       <c r="O6">
-        <v>0.009246943144590633</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P6">
-        <v>0.009246943144590635</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q6">
-        <v>0.1019614154936666</v>
+        <v>0.039004207576</v>
       </c>
       <c r="R6">
-        <v>0.9176527394429999</v>
+        <v>0.351037868184</v>
       </c>
       <c r="S6">
-        <v>0.0002854156505979081</v>
+        <v>0.0001305701149433421</v>
       </c>
       <c r="T6">
-        <v>0.0002854156505979081</v>
+        <v>0.0001305701149433421</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>0.452037</v>
       </c>
       <c r="I7">
-        <v>0.03086594630625293</v>
+        <v>0.03018976722789659</v>
       </c>
       <c r="J7">
-        <v>0.03086594630625293</v>
+        <v>0.03018976722789659</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.70030966666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N7">
-        <v>137.100929</v>
+        <v>8.024505</v>
       </c>
       <c r="O7">
-        <v>0.624502531987591</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P7">
-        <v>0.6245025319875911</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q7">
-        <v>6.886076960263666</v>
+        <v>0.403041462965</v>
       </c>
       <c r="R7">
-        <v>61.974692642373</v>
+        <v>3.627373166685</v>
       </c>
       <c r="S7">
-        <v>0.01927586162044799</v>
+        <v>0.001349217774613988</v>
       </c>
       <c r="T7">
-        <v>0.01927586162044799</v>
+        <v>0.001349217774613988</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>0.452037</v>
       </c>
       <c r="I8">
-        <v>0.03086594630625293</v>
+        <v>0.03018976722789659</v>
       </c>
       <c r="J8">
-        <v>0.03086594630625293</v>
+        <v>0.03018976722789659</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.65531</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N8">
-        <v>79.96592999999999</v>
+        <v>137.100929</v>
       </c>
       <c r="O8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P8">
-        <v>0.3642493608321389</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q8">
-        <v>4.016395455489999</v>
+        <v>6.886076960263668</v>
       </c>
       <c r="R8">
-        <v>36.14755909940999</v>
+        <v>61.97469264237301</v>
       </c>
       <c r="S8">
-        <v>0.01124290121353175</v>
+        <v>0.02305176585009175</v>
       </c>
       <c r="T8">
-        <v>0.01124290121353175</v>
+        <v>0.02305176585009175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>0.452037</v>
       </c>
       <c r="I9">
-        <v>0.03086594630625293</v>
+        <v>0.03018976722789659</v>
       </c>
       <c r="J9">
-        <v>0.03086594630625293</v>
+        <v>0.03018976722789659</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1464426666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N9">
-        <v>0.439328</v>
+        <v>34.382999</v>
       </c>
       <c r="O9">
-        <v>0.002001164035679469</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P9">
-        <v>0.00200116403567947</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q9">
-        <v>0.02206583457066666</v>
+        <v>1.726931968773667</v>
       </c>
       <c r="R9">
-        <v>0.198592511136</v>
+        <v>15.542387718963</v>
       </c>
       <c r="S9">
-        <v>6.176782167528691E-05</v>
+        <v>0.005781061061752095</v>
       </c>
       <c r="T9">
-        <v>6.176782167528693E-05</v>
+        <v>0.005781061061752094</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.07608100000000001</v>
+        <v>0.150679</v>
       </c>
       <c r="H10">
-        <v>0.228243</v>
+        <v>0.452037</v>
       </c>
       <c r="I10">
-        <v>0.0155848662449713</v>
+        <v>0.03018976722789659</v>
       </c>
       <c r="J10">
-        <v>0.01558486624497129</v>
+        <v>0.03018976722789659</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.6766796666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N10">
-        <v>2.030039</v>
+        <v>0.016902</v>
       </c>
       <c r="O10">
-        <v>0.009246943144590633</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P10">
-        <v>0.009246943144590635</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q10">
-        <v>0.05148246571966667</v>
+        <v>0.0008489254860000001</v>
       </c>
       <c r="R10">
-        <v>0.4633421914770001</v>
+        <v>0.007640329374000001</v>
       </c>
       <c r="S10">
-        <v>0.0001441123720832993</v>
+        <v>2.841854896535754E-06</v>
       </c>
       <c r="T10">
-        <v>0.0001441123720832993</v>
+        <v>2.841854896535753E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.07608100000000001</v>
+        <v>0.150679</v>
       </c>
       <c r="H11">
-        <v>0.228243</v>
+        <v>0.452037</v>
       </c>
       <c r="I11">
-        <v>0.0155848662449713</v>
+        <v>0.03018976722789659</v>
       </c>
       <c r="J11">
-        <v>0.01558486624497129</v>
+        <v>0.03018976722789659</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>45.70030966666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N11">
-        <v>137.100929</v>
+        <v>0.029028</v>
       </c>
       <c r="O11">
-        <v>0.624502531987591</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P11">
-        <v>0.6245025319875911</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q11">
-        <v>3.476925259749667</v>
+        <v>0.001457970004</v>
       </c>
       <c r="R11">
-        <v>31.29232733774701</v>
+        <v>0.013121730036</v>
       </c>
       <c r="S11">
-        <v>0.009732788430672514</v>
+        <v>4.880686542222213E-06</v>
       </c>
       <c r="T11">
-        <v>0.009732788430672512</v>
+        <v>4.880686542222213E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07608100000000001</v>
+        <v>0.05682966666666667</v>
       </c>
       <c r="H12">
-        <v>0.228243</v>
+        <v>0.170489</v>
       </c>
       <c r="I12">
-        <v>0.0155848662449713</v>
+        <v>0.01138628746079826</v>
       </c>
       <c r="J12">
-        <v>0.01558486624497129</v>
+        <v>0.01138628746079826</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.65531</v>
+        <v>2.674835</v>
       </c>
       <c r="N12">
-        <v>79.96592999999999</v>
+        <v>8.024505</v>
       </c>
       <c r="O12">
-        <v>0.3642493608321389</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P12">
-        <v>0.3642493608321389</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q12">
-        <v>2.02796264011</v>
+        <v>0.1520099814383333</v>
       </c>
       <c r="R12">
-        <v>18.25166376099</v>
+        <v>1.368089832945</v>
       </c>
       <c r="S12">
-        <v>0.005676777568385171</v>
+        <v>0.0005088671705549861</v>
       </c>
       <c r="T12">
-        <v>0.005676777568385171</v>
+        <v>0.0005088671705549861</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,61 +1225,61 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.07608100000000001</v>
+        <v>0.05682966666666667</v>
       </c>
       <c r="H13">
-        <v>0.228243</v>
+        <v>0.170489</v>
       </c>
       <c r="I13">
-        <v>0.0155848662449713</v>
+        <v>0.01138628746079826</v>
       </c>
       <c r="J13">
-        <v>0.01558486624497129</v>
+        <v>0.01138628746079826</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1464426666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N13">
-        <v>0.439328</v>
+        <v>137.100929</v>
       </c>
       <c r="O13">
-        <v>0.002001164035679469</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P13">
-        <v>0.00200116403567947</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q13">
-        <v>0.01114150452266667</v>
+        <v>2.597133364920111</v>
       </c>
       <c r="R13">
-        <v>0.100273540704</v>
+        <v>23.374200284281</v>
       </c>
       <c r="S13">
-        <v>3.118787383031149E-05</v>
+        <v>0.008694138993083069</v>
       </c>
       <c r="T13">
-        <v>3.118787383031149E-05</v>
+        <v>0.008694138993083069</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2853226666666667</v>
+        <v>0.05682966666666667</v>
       </c>
       <c r="H14">
-        <v>0.8559680000000001</v>
+        <v>0.170489</v>
       </c>
       <c r="I14">
-        <v>0.05844712341660243</v>
+        <v>0.01138628746079826</v>
       </c>
       <c r="J14">
-        <v>0.05844712341660242</v>
+        <v>0.01138628746079826</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6766796666666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N14">
-        <v>2.030039</v>
+        <v>34.382999</v>
       </c>
       <c r="O14">
-        <v>0.009246943144590633</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P14">
-        <v>0.009246943144590635</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q14">
-        <v>0.1930720469724445</v>
+        <v>0.6513247907234444</v>
       </c>
       <c r="R14">
-        <v>1.737648422752</v>
+        <v>5.861923116511</v>
       </c>
       <c r="S14">
-        <v>0.0005404572271981945</v>
+        <v>0.002180368685211726</v>
       </c>
       <c r="T14">
-        <v>0.0005404572271981945</v>
+        <v>0.002180368685211726</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2853226666666667</v>
+        <v>0.05682966666666667</v>
       </c>
       <c r="H15">
-        <v>0.8559680000000001</v>
+        <v>0.170489</v>
       </c>
       <c r="I15">
-        <v>0.05844712341660243</v>
+        <v>0.01138628746079826</v>
       </c>
       <c r="J15">
-        <v>0.05844712341660242</v>
+        <v>0.01138628746079826</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>45.70030966666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N15">
-        <v>137.100929</v>
+        <v>0.016902</v>
       </c>
       <c r="O15">
-        <v>0.624502531987591</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P15">
-        <v>0.6245025319875911</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q15">
-        <v>13.03933422158578</v>
+        <v>0.000320178342</v>
       </c>
       <c r="R15">
-        <v>117.354007994272</v>
+        <v>0.002881605078</v>
       </c>
       <c r="S15">
-        <v>0.03650037656105944</v>
+        <v>1.071825977642282E-06</v>
       </c>
       <c r="T15">
-        <v>0.03650037656105944</v>
+        <v>1.071825977642282E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2853226666666667</v>
+        <v>0.05682966666666667</v>
       </c>
       <c r="H16">
-        <v>0.8559680000000001</v>
+        <v>0.170489</v>
       </c>
       <c r="I16">
-        <v>0.05844712341660243</v>
+        <v>0.01138628746079826</v>
       </c>
       <c r="J16">
-        <v>0.05844712341660242</v>
+        <v>0.01138628746079826</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>26.65531</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N16">
-        <v>79.96592999999999</v>
+        <v>0.029028</v>
       </c>
       <c r="O16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P16">
-        <v>0.3642493608321389</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q16">
-        <v>7.605364130026666</v>
+        <v>0.0005498838546666667</v>
       </c>
       <c r="R16">
-        <v>68.44827717023999</v>
+        <v>0.004948954692</v>
       </c>
       <c r="S16">
-        <v>0.02128932734697457</v>
+        <v>1.840785970831863E-06</v>
       </c>
       <c r="T16">
-        <v>0.02128932734697457</v>
+        <v>1.840785970831863E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2853226666666667</v>
+        <v>0.05920433333333333</v>
       </c>
       <c r="H17">
-        <v>0.8559680000000001</v>
+        <v>0.177613</v>
       </c>
       <c r="I17">
-        <v>0.05844712341660243</v>
+        <v>0.01186207130533208</v>
       </c>
       <c r="J17">
-        <v>0.05844712341660242</v>
+        <v>0.01186207130533208</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1464426666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N17">
-        <v>0.439328</v>
+        <v>8.024505</v>
       </c>
       <c r="O17">
-        <v>0.002001164035679469</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P17">
-        <v>0.00200116403567947</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q17">
-        <v>0.04178341216711111</v>
+        <v>0.1583618229516666</v>
       </c>
       <c r="R17">
-        <v>0.376050709504</v>
+        <v>1.425256406565</v>
       </c>
       <c r="S17">
-        <v>0.0001169622813702241</v>
+        <v>0.0005301305348954053</v>
       </c>
       <c r="T17">
-        <v>0.0001169622813702241</v>
+        <v>0.0005301305348954052</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1585873333333333</v>
+        <v>0.05920433333333333</v>
       </c>
       <c r="H18">
-        <v>0.475762</v>
+        <v>0.177613</v>
       </c>
       <c r="I18">
-        <v>0.03248593444022394</v>
+        <v>0.01186207130533208</v>
       </c>
       <c r="J18">
-        <v>0.03248593444022393</v>
+        <v>0.01186207130533208</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6766796666666667</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N18">
-        <v>2.030039</v>
+        <v>137.100929</v>
       </c>
       <c r="O18">
-        <v>0.009246943144590633</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P18">
-        <v>0.009246943144590635</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q18">
-        <v>0.1073128238575556</v>
+        <v>2.705656366941889</v>
       </c>
       <c r="R18">
-        <v>0.965815414718</v>
+        <v>24.350907302477</v>
       </c>
       <c r="S18">
-        <v>0.0003003955887676496</v>
+        <v>0.009057429564244398</v>
       </c>
       <c r="T18">
-        <v>0.0003003955887676495</v>
+        <v>0.009057429564244398</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1585873333333333</v>
+        <v>0.05920433333333333</v>
       </c>
       <c r="H19">
-        <v>0.475762</v>
+        <v>0.177613</v>
       </c>
       <c r="I19">
-        <v>0.03248593444022394</v>
+        <v>0.01186207130533208</v>
       </c>
       <c r="J19">
-        <v>0.03248593444022393</v>
+        <v>0.01186207130533208</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,43 +1615,43 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>45.70030966666667</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N19">
-        <v>137.100929</v>
+        <v>34.382999</v>
       </c>
       <c r="O19">
-        <v>0.624502531987591</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P19">
-        <v>0.6245025319875911</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q19">
-        <v>7.247490242544223</v>
+        <v>0.6785408445985555</v>
       </c>
       <c r="R19">
-        <v>65.22741218289801</v>
+        <v>6.106867601386999</v>
       </c>
       <c r="S19">
-        <v>0.02028754831190274</v>
+        <v>0.002271476888752414</v>
       </c>
       <c r="T19">
-        <v>0.02028754831190274</v>
+        <v>0.002271476888752413</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,51 +1659,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1585873333333333</v>
+        <v>0.05920433333333333</v>
       </c>
       <c r="H20">
-        <v>0.475762</v>
+        <v>0.177613</v>
       </c>
       <c r="I20">
-        <v>0.03248593444022394</v>
+        <v>0.01186207130533208</v>
       </c>
       <c r="J20">
-        <v>0.03248593444022393</v>
+        <v>0.01186207130533208</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>26.65531</v>
+        <v>0.005634</v>
       </c>
       <c r="N20">
-        <v>79.96592999999999</v>
+        <v>0.016902</v>
       </c>
       <c r="O20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P20">
-        <v>0.3642493608321389</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q20">
-        <v>4.227194532073333</v>
+        <v>0.000333557214</v>
       </c>
       <c r="R20">
-        <v>38.04475078866</v>
+        <v>0.003002014926</v>
       </c>
       <c r="S20">
-        <v>0.01183298085588634</v>
+        <v>1.11661296251945E-06</v>
       </c>
       <c r="T20">
-        <v>0.01183298085588634</v>
+        <v>1.11661296251945E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1585873333333333</v>
+        <v>0.05920433333333333</v>
       </c>
       <c r="H21">
-        <v>0.475762</v>
+        <v>0.177613</v>
       </c>
       <c r="I21">
-        <v>0.03248593444022394</v>
+        <v>0.01186207130533208</v>
       </c>
       <c r="J21">
-        <v>0.03248593444022393</v>
+        <v>0.01186207130533208</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,33 +1739,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1464426666666667</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="N21">
-        <v>0.439328</v>
+        <v>0.029028</v>
       </c>
       <c r="O21">
-        <v>0.002001164035679469</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="P21">
-        <v>0.00200116403567947</v>
+        <v>0.0001616669153285905</v>
       </c>
       <c r="Q21">
-        <v>0.02322395199288889</v>
+        <v>0.0005728611293333334</v>
       </c>
       <c r="R21">
-        <v>0.209015567936</v>
+        <v>0.005155750164</v>
       </c>
       <c r="S21">
-        <v>6.50096836672172E-05</v>
+        <v>1.917704477340824E-06</v>
       </c>
       <c r="T21">
-        <v>6.50096836672172E-05</v>
+        <v>1.917704477340824E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.03059533333333333</v>
+        <v>0.1231516666666667</v>
       </c>
       <c r="H22">
-        <v>0.09178599999999999</v>
+        <v>0.369455</v>
       </c>
       <c r="I22">
-        <v>0.006267322691871974</v>
+        <v>0.0246744413647169</v>
       </c>
       <c r="J22">
-        <v>0.006267322691871973</v>
+        <v>0.0246744413647169</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6766796666666667</v>
+        <v>2.674835</v>
       </c>
       <c r="N22">
-        <v>2.030039</v>
+        <v>8.024505</v>
       </c>
       <c r="O22">
-        <v>0.009246943144590633</v>
+        <v>0.0446912281379651</v>
       </c>
       <c r="P22">
-        <v>0.009246943144590635</v>
+        <v>0.04469122813796509</v>
       </c>
       <c r="Q22">
-        <v>0.02070323996155556</v>
+        <v>0.3294103883083333</v>
       </c>
       <c r="R22">
-        <v>0.186329159654</v>
+        <v>2.964693494775</v>
       </c>
       <c r="S22">
-        <v>5.795357660054286E-05</v>
+        <v>0.001102731088207406</v>
       </c>
       <c r="T22">
-        <v>5.795357660054287E-05</v>
+        <v>0.001102731088207406</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,22 +1839,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.03059533333333333</v>
+        <v>0.1231516666666667</v>
       </c>
       <c r="H23">
-        <v>0.09178599999999999</v>
+        <v>0.369455</v>
       </c>
       <c r="I23">
-        <v>0.006267322691871974</v>
+        <v>0.0246744413647169</v>
       </c>
       <c r="J23">
-        <v>0.006267322691871973</v>
+        <v>0.0246744413647169</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>137.100929</v>
       </c>
       <c r="O23">
-        <v>0.624502531987591</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="P23">
-        <v>0.6245025319875911</v>
+        <v>0.7635622254414391</v>
       </c>
       <c r="Q23">
-        <v>1.398216207688222</v>
+        <v>5.628069302632777</v>
       </c>
       <c r="R23">
-        <v>12.583945869194</v>
+        <v>50.652623723695</v>
       </c>
       <c r="S23">
-        <v>0.003913958889857332</v>
+        <v>0.01884047135996754</v>
       </c>
       <c r="T23">
-        <v>0.003913958889857332</v>
+        <v>0.01884047135996754</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.03059533333333333</v>
+        <v>0.1231516666666667</v>
       </c>
       <c r="H24">
-        <v>0.09178599999999999</v>
+        <v>0.369455</v>
       </c>
       <c r="I24">
-        <v>0.006267322691871974</v>
+        <v>0.0246744413647169</v>
       </c>
       <c r="J24">
-        <v>0.006267322691871973</v>
+        <v>0.0246744413647169</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.65531</v>
+        <v>11.46099966666667</v>
       </c>
       <c r="N24">
-        <v>79.96592999999999</v>
+        <v>34.382999</v>
       </c>
       <c r="O24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="P24">
-        <v>0.3642493608321389</v>
+        <v>0.1914907464543203</v>
       </c>
       <c r="Q24">
-        <v>0.8155280945533332</v>
+        <v>1.411441210616111</v>
       </c>
       <c r="R24">
-        <v>7.339752850979998</v>
+        <v>12.702970895545</v>
       </c>
       <c r="S24">
-        <v>0.002282868284643127</v>
+        <v>0.004724927195272998</v>
       </c>
       <c r="T24">
-        <v>0.002282868284643127</v>
+        <v>0.004724927195272998</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.03059533333333333</v>
+        <v>0.1231516666666667</v>
       </c>
       <c r="H25">
-        <v>0.09178599999999999</v>
+        <v>0.369455</v>
       </c>
       <c r="I25">
-        <v>0.006267322691871974</v>
+        <v>0.0246744413647169</v>
       </c>
       <c r="J25">
-        <v>0.006267322691871973</v>
+        <v>0.0246744413647169</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,400 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.1464426666666667</v>
+        <v>0.005634</v>
       </c>
       <c r="N25">
-        <v>0.439328</v>
+        <v>0.016902</v>
       </c>
       <c r="O25">
-        <v>0.002001164035679469</v>
+        <v>9.413305094680434E-05</v>
       </c>
       <c r="P25">
-        <v>0.00200116403567947</v>
+        <v>9.413305094680433E-05</v>
       </c>
       <c r="Q25">
-        <v>0.004480462200888889</v>
+        <v>0.00069383649</v>
       </c>
       <c r="R25">
-        <v>0.040324159808</v>
+        <v>0.00624452841</v>
       </c>
       <c r="S25">
-        <v>1.254194077097203E-05</v>
+        <v>2.322680446068832E-06</v>
       </c>
       <c r="T25">
-        <v>1.254194077097204E-05</v>
+        <v>2.322680446068832E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.1231516666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.369455</v>
+      </c>
+      <c r="I26">
+        <v>0.0246744413647169</v>
+      </c>
+      <c r="J26">
+        <v>0.0246744413647169</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.029028</v>
+      </c>
+      <c r="O26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P26">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q26">
+        <v>0.001191615526666667</v>
+      </c>
+      <c r="R26">
+        <v>0.01072453974</v>
+      </c>
+      <c r="S26">
+        <v>3.989040822889958E-06</v>
+      </c>
+      <c r="T26">
+        <v>3.989040822889958E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.5701713333333333</v>
+      </c>
+      <c r="H27">
+        <v>1.710514</v>
+      </c>
+      <c r="I27">
+        <v>0.1142384793723927</v>
+      </c>
+      <c r="J27">
+        <v>0.1142384793723927</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.674835</v>
+      </c>
+      <c r="N27">
+        <v>8.024505</v>
+      </c>
+      <c r="O27">
+        <v>0.0446912281379651</v>
+      </c>
+      <c r="P27">
+        <v>0.04469122813796509</v>
+      </c>
+      <c r="Q27">
+        <v>1.525114238396666</v>
+      </c>
+      <c r="R27">
+        <v>13.72602814557</v>
+      </c>
+      <c r="S27">
+        <v>0.005105457943765823</v>
+      </c>
+      <c r="T27">
+        <v>0.005105457943765823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.5701713333333333</v>
+      </c>
+      <c r="H28">
+        <v>1.710514</v>
+      </c>
+      <c r="I28">
+        <v>0.1142384793723927</v>
+      </c>
+      <c r="J28">
+        <v>0.1142384793723927</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N28">
+        <v>137.100929</v>
+      </c>
+      <c r="O28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="P28">
+        <v>0.7635622254414391</v>
+      </c>
+      <c r="Q28">
+        <v>26.05700649638955</v>
+      </c>
+      <c r="R28">
+        <v>234.513058467506</v>
+      </c>
+      <c r="S28">
+        <v>0.08722818754063014</v>
+      </c>
+      <c r="T28">
+        <v>0.08722818754063015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.5701713333333333</v>
+      </c>
+      <c r="H29">
+        <v>1.710514</v>
+      </c>
+      <c r="I29">
+        <v>0.1142384793723927</v>
+      </c>
+      <c r="J29">
+        <v>0.1142384793723927</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.46099966666667</v>
+      </c>
+      <c r="N29">
+        <v>34.382999</v>
+      </c>
+      <c r="O29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="P29">
+        <v>0.1914907464543203</v>
+      </c>
+      <c r="Q29">
+        <v>6.534733461276221</v>
+      </c>
+      <c r="R29">
+        <v>58.81260115148599</v>
+      </c>
+      <c r="S29">
+        <v>0.02187561168882596</v>
+      </c>
+      <c r="T29">
+        <v>0.02187561168882596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.5701713333333333</v>
+      </c>
+      <c r="H30">
+        <v>1.710514</v>
+      </c>
+      <c r="I30">
+        <v>0.1142384793723927</v>
+      </c>
+      <c r="J30">
+        <v>0.1142384793723927</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.005634</v>
+      </c>
+      <c r="N30">
+        <v>0.016902</v>
+      </c>
+      <c r="O30">
+        <v>9.413305094680434E-05</v>
+      </c>
+      <c r="P30">
+        <v>9.413305094680433E-05</v>
+      </c>
+      <c r="Q30">
+        <v>0.003212345291999999</v>
+      </c>
+      <c r="R30">
+        <v>0.028911107628</v>
+      </c>
+      <c r="S30">
+        <v>1.07536165988469E-05</v>
+      </c>
+      <c r="T30">
+        <v>1.07536165988469E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.5701713333333333</v>
+      </c>
+      <c r="H31">
+        <v>1.710514</v>
+      </c>
+      <c r="I31">
+        <v>0.1142384793723927</v>
+      </c>
+      <c r="J31">
+        <v>0.1142384793723927</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.009676000000000001</v>
+      </c>
+      <c r="N31">
+        <v>0.029028</v>
+      </c>
+      <c r="O31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="P31">
+        <v>0.0001616669153285905</v>
+      </c>
+      <c r="Q31">
+        <v>0.005516977821333333</v>
+      </c>
+      <c r="R31">
+        <v>0.049652800392</v>
+      </c>
+      <c r="S31">
+        <v>1.846858257196355E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.846858257196355E-05</v>
       </c>
     </row>
   </sheetData>
